--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1300</v>
       </c>
       <c r="F10" s="3">
         <v>1300</v>
       </c>
       <c r="G10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1100</v>
       </c>
       <c r="I10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,45 +1055,48 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,54 +1439,60 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1681,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
@@ -1612,45 +1705,51 @@
         <v>700</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,10 +1757,10 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -1670,45 +1769,51 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1500</v>
       </c>
       <c r="I46" s="3">
         <v>1500</v>
       </c>
       <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,14 +1826,14 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1748,7 +1856,7 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -1757,16 +1865,19 @@
         <v>800</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1788,14 +1899,17 @@
       <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="J49" s="3">
+        <v>700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1861,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,62 +2108,68 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2041,48 +2178,54 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2093,10 +2236,10 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -2105,18 +2248,21 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -2128,19 +2274,22 @@
         <v>700</v>
       </c>
       <c r="H62" s="3">
+        <v>700</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7900</v>
       </c>
       <c r="G72" s="3">
         <v>-7900</v>
       </c>
       <c r="H72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>9600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2654,8 +2853,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2859,28 +3080,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2946,28 +3176,31 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
       </c>
       <c r="H10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1100</v>
       </c>
       <c r="J10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,20 +921,20 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1058,48 +1092,51 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="J21" s="3">
+        <v>100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1442,57 +1512,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,22 +1774,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
@@ -1708,62 +1801,68 @@
         <v>700</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1772,48 +1871,54 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
         <v>10100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1500</v>
       </c>
       <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1829,14 +1934,14 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
-        <v>200</v>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1844,13 +1949,16 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -1859,7 +1967,7 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
@@ -1868,16 +1976,19 @@
         <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>700</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1984,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,13 +2226,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2111,25 +2242,28 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,40 +2273,43 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2181,51 +2318,57 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2239,10 +2382,10 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -2251,21 +2394,24 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
@@ -2277,19 +2423,22 @@
         <v>700</v>
       </c>
       <c r="I62" s="3">
+        <v>700</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7900</v>
       </c>
       <c r="H72" s="3">
         <v>-7900</v>
       </c>
       <c r="I72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2856,8 +3055,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3083,28 +3304,31 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,28 +3409,31 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,31 +3596,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +943,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,54 +1043,62 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
@@ -1048,22 +1107,28 @@
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1095,60 +1162,72 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1261,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1515,60 +1654,72 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1878,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1956,178 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1937,23 +2146,29 @@
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,42 +2176,48 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="L48" s="3">
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>700</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2016,14 +2237,20 @@
       <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2107,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F54" s="3">
         <v>11900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,156 +2486,182 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -2385,25 +2670,31 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2411,13 +2702,13 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -2426,19 +2717,25 @@
         <v>700</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F76" s="3">
         <v>10800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-2300</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,17 +3455,23 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,13 +3731,15 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3307,28 +3748,34 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3412,28 +3871,34 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4072,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,31 +4090,37 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +4154,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1100</v>
       </c>
       <c r="M10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,40 +966,43 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1168,57 +1202,60 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
+      <c r="M21" s="3">
+        <v>100</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1660,66 +1730,72 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,31 +2052,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
@@ -1995,80 +2088,86 @@
         <v>700</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2077,89 +2176,95 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9200</v>
+        <v>6500</v>
       </c>
       <c r="E46" s="3">
         <v>9200</v>
       </c>
       <c r="F46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1500</v>
       </c>
       <c r="M46" s="3">
         <v>1500</v>
       </c>
       <c r="N46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
-        <v>200</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
+      <c r="M47" s="3">
+        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
@@ -2167,13 +2272,16 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -2182,7 +2290,7 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
@@ -2191,7 +2299,7 @@
         <v>900</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
@@ -2200,27 +2308,30 @@
         <v>800</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>700</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2352,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,22 +2618,23 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2512,25 +2643,28 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,8 +2674,8 @@
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -2549,49 +2683,52 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2600,60 +2737,66 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -2676,10 +2819,10 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -2688,18 +2831,21 @@
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2708,10 +2854,10 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
@@ -2723,19 +2869,22 @@
         <v>700</v>
       </c>
       <c r="L62" s="3">
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-7900</v>
       </c>
       <c r="K72" s="3">
         <v>-7900</v>
       </c>
       <c r="L72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,8 +3660,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,37 +3904,40 @@
         <v>-700</v>
       </c>
       <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,16 +3953,17 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3754,28 +3975,31 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3877,28 +4107,31 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4096,31 +4342,34 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4172,33 +4424,36 @@
         <v>-700</v>
       </c>
       <c r="F102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="M10" s="3">
         <v>1100</v>
       </c>
       <c r="N10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,43 +986,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1205,60 +1239,63 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
+      <c r="N21" s="3">
+        <v>100</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,69 +1803,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,34 +2145,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
@@ -2091,16 +2184,19 @@
         <v>700</v>
       </c>
       <c r="N43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,69 +2204,72 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2179,60 +2278,66 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>6500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9200</v>
       </c>
       <c r="F46" s="3">
         <v>9200</v>
       </c>
       <c r="G46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H46" s="3">
         <v>10600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1500</v>
       </c>
       <c r="N46" s="3">
         <v>1500</v>
       </c>
       <c r="O46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,17 +2362,17 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
+      <c r="N47" s="3">
+        <v>200</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2392,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -2293,7 +2401,7 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
@@ -2302,7 +2410,7 @@
         <v>900</v>
       </c>
       <c r="K48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
@@ -2311,16 +2419,19 @@
         <v>800</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,11 +2441,11 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>700</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2475,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2749,26 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2646,30 +2777,33 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2677,8 +2811,8 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2686,52 +2820,55 @@
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2740,63 +2877,69 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -2822,10 +2965,10 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -2834,13 +2977,16 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,7 +2994,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2857,10 +3003,10 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
@@ -2872,19 +3018,22 @@
         <v>700</v>
       </c>
       <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-7900</v>
       </c>
       <c r="L72" s="3">
         <v>-7900</v>
       </c>
       <c r="M72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +3862,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,37 +4124,40 @@
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,8 +4186,8 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3978,28 +4199,31 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4110,28 +4340,31 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4567,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4345,31 +4591,34 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4661,16 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
         <v>-700</v>
@@ -4427,33 +4679,36 @@
         <v>-700</v>
       </c>
       <c r="G102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,191 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
         <v>1100</v>
       </c>
       <c r="F9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,46 +857,52 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,78 +1150,86 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1179,22 +1238,28 @@
         <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,72 +1309,84 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1806,72 +1945,84 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,187 +2342,211 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2365,78 +2574,90 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>900</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -2444,14 +2665,14 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -2471,14 +2692,20 @@
       <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2598,14 +2837,14 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,201 +3009,227 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2956,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -2968,51 +3253,57 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -3021,19 +3312,25 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
+        <v>700</v>
+      </c>
+      <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,17 +4262,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,16 +4536,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
@@ -4127,37 +4560,43 @@
         <v>-700</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,11 +4630,11 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4202,28 +4643,34 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4343,28 +4802,34 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,20 +5055,26 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4594,31 +5085,37 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-700</v>
       </c>
       <c r="G102" s="3">
         <v>-700</v>
       </c>
       <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
         <v>1300</v>
@@ -863,46 +873,49 @@
         <v>1300</v>
       </c>
       <c r="G10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1300</v>
       </c>
       <c r="N10" s="3">
         <v>1300</v>
       </c>
       <c r="O10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="P10" s="3">
         <v>1100</v>
       </c>
       <c r="Q10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,69 +1349,72 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
+      <c r="Q21" s="3">
+        <v>100</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,78 +2021,84 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,28 +2441,28 @@
         <v>1000</v>
       </c>
       <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>700</v>
       </c>
       <c r="O43" s="3">
         <v>700</v>
@@ -2378,24 +2471,27 @@
         <v>700</v>
       </c>
       <c r="Q43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2404,43 +2500,46 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,34 +2547,34 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2484,69 +2583,75 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9200</v>
       </c>
       <c r="I46" s="3">
         <v>9200</v>
       </c>
       <c r="J46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1500</v>
       </c>
       <c r="Q46" s="3">
         <v>1500</v>
       </c>
       <c r="R46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2580,17 +2685,17 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
-        <v>200</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
+      <c r="Q47" s="3">
+        <v>200</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
@@ -2598,25 +2703,28 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -2625,7 +2733,7 @@
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
@@ -2634,7 +2742,7 @@
         <v>900</v>
       </c>
       <c r="N48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
@@ -2643,25 +2751,28 @@
         <v>800</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2671,11 +2782,11 @@
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>700</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,11 +2939,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2843,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E54" s="3">
         <v>5800</v>
       </c>
       <c r="F54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,34 +3141,35 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3047,25 +3178,28 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,13 +3207,13 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -3087,8 +3221,8 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3096,61 +3230,64 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3159,72 +3296,78 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3247,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3259,10 +3402,10 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
@@ -3271,13 +3414,16 @@
         <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,16 +3431,16 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3303,10 +3449,10 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
@@ -3318,19 +3464,22 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-7900</v>
       </c>
       <c r="O72" s="3">
         <v>-7900</v>
       </c>
       <c r="P72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
@@ -4566,37 +4783,40 @@
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4649,28 +4870,31 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4808,28 +5038,31 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,23 +5304,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5091,31 +5337,34 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,22 +5416,25 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-700</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
@@ -5191,33 +5443,36 @@
         <v>-700</v>
       </c>
       <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>800</v>
       </c>
       <c r="T8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1300</v>
       </c>
       <c r="F10" s="3">
         <v>1300</v>
@@ -876,46 +886,49 @@
         <v>1300</v>
       </c>
       <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1300</v>
       </c>
       <c r="O10" s="3">
         <v>1300</v>
       </c>
       <c r="P10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Q10" s="3">
         <v>1100</v>
       </c>
       <c r="R10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,55 +1065,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,72 +1386,75 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
+      <c r="R21" s="3">
+        <v>100</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
@@ -1425,13 +1462,16 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2024,81 +2094,87 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,13 +2516,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -2444,28 +2537,28 @@
         <v>1000</v>
       </c>
       <c r="H43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>700</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
@@ -2474,27 +2567,30 @@
         <v>700</v>
       </c>
       <c r="R43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="S43" s="3">
         <v>400</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2503,81 +2599,84 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2586,72 +2685,78 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9200</v>
       </c>
       <c r="J46" s="3">
         <v>9200</v>
       </c>
       <c r="K46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L46" s="3">
         <v>10600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1500</v>
       </c>
       <c r="R46" s="3">
         <v>1500</v>
       </c>
       <c r="S46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2688,17 +2793,17 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
-        <v>200</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
+      <c r="R47" s="3">
+        <v>200</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,19 +2823,19 @@
         <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -2736,7 +2844,7 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>900</v>
@@ -2745,7 +2853,7 @@
         <v>900</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -2754,16 +2862,19 @@
         <v>800</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,11 +2882,11 @@
         <v>1100</v>
       </c>
       <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2785,11 +2896,11 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>700</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,11 +3062,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2966,11 +3086,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5800</v>
       </c>
       <c r="F54" s="3">
         <v>5800</v>
       </c>
       <c r="G54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,37 +3272,38 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3181,25 +3312,28 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,13 +3344,13 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -3224,8 +3358,8 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
@@ -3233,29 +3367,32 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,34 +3400,34 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3299,75 +3436,81 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,7 +3521,7 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3393,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3405,10 +3548,10 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
@@ -3417,33 +3560,36 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3452,10 +3598,10 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
@@ -3467,19 +3613,22 @@
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-7900</v>
       </c>
       <c r="P72" s="3">
         <v>-7900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,22 +4973,25 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
@@ -4786,37 +5003,40 @@
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4860,8 +5081,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4873,28 +5094,31 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,17 +5232,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5041,28 +5271,31 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,26 +5550,29 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5340,31 +5586,34 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,25 +5668,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-700</v>
       </c>
       <c r="I102" s="3">
         <v>-700</v>
@@ -5446,33 +5698,36 @@
         <v>-700</v>
       </c>
       <c r="K102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>800</v>
       </c>
       <c r="U8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,69 +824,72 @@
         <v>1000</v>
       </c>
       <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
-      </c>
-      <c r="R9" s="3">
-        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>400</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
@@ -889,46 +898,49 @@
         <v>1300</v>
       </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1300</v>
       </c>
       <c r="P10" s="3">
         <v>1300</v>
       </c>
       <c r="Q10" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="R10" s="3">
         <v>1100</v>
       </c>
       <c r="S10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,37 +1084,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1106,20 +1125,20 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1389,75 +1422,78 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
+      <c r="S21" s="3">
+        <v>100</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
@@ -1465,17 +1501,20 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2097,84 +2166,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1000</v>
       </c>
       <c r="F43" s="3">
         <v>1000</v>
@@ -2540,28 +2632,28 @@
         <v>1000</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
@@ -2570,16 +2662,19 @@
         <v>700</v>
       </c>
       <c r="S43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T43" s="3">
         <v>400</v>
       </c>
       <c r="U43" s="3">
+        <v>400</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,13 +2682,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2602,84 +2697,87 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
         <v>500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2688,75 +2786,81 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9200</v>
       </c>
       <c r="K46" s="3">
         <v>9200</v>
       </c>
       <c r="L46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M46" s="3">
         <v>10600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1500</v>
       </c>
       <c r="S46" s="3">
         <v>1500</v>
       </c>
       <c r="T46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2796,17 +2900,17 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>200</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
+      <c r="S47" s="3">
+        <v>200</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
@@ -2814,31 +2918,34 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2847,7 +2954,7 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>900</v>
@@ -2856,7 +2963,7 @@
         <v>900</v>
       </c>
       <c r="P48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
@@ -2865,30 +2972,33 @@
         <v>800</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>1100</v>
       </c>
       <c r="F49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -2899,11 +3009,11 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
@@ -2926,14 +3036,17 @@
       <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
+      <c r="T49" s="3">
+        <v>700</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3065,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -3089,11 +3208,11 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5800</v>
       </c>
       <c r="G54" s="3">
         <v>5800</v>
       </c>
       <c r="H54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,31 +3412,31 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3315,25 +3445,28 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3347,13 +3480,13 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3361,8 +3494,8 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -3370,67 +3503,70 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3439,19 +3575,22 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3598,61 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3524,7 +3666,7 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3539,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -3551,10 +3693,10 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>500</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
@@ -3563,13 +3705,16 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
+        <v>500</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,22 +3722,22 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3601,10 +3746,10 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
@@ -3616,10 +3761,10 @@
         <v>700</v>
       </c>
       <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7900</v>
       </c>
       <c r="Q72" s="3">
         <v>-7900</v>
       </c>
       <c r="R72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,8 +4870,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,25 +5189,28 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
@@ -5006,37 +5222,40 @@
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,35 +5277,36 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5097,19 +5317,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5244,11 +5473,11 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5274,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,29 +5795,32 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5589,31 +5834,34 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,28 +5919,31 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-700</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>
@@ -5701,33 +5952,36 @@
         <v>-700</v>
       </c>
       <c r="L102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>MEDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1300</v>
       </c>
       <c r="J9" s="3">
         <v>1100</v>
       </c>
       <c r="K9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1300</v>
       </c>
       <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1121,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,108 +1284,116 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2000</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
@@ -1342,22 +1402,28 @@
         <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>200</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,20 +1446,22 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1425,87 +1493,99 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-1100</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>200</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1566,70 +1646,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1947,22 +2069,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,20 +2258,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2169,87 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,22 +2791,28 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
@@ -2635,170 +2821,188 @@
         <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>700</v>
-      </c>
-      <c r="R43" s="3">
-        <v>700</v>
       </c>
       <c r="S43" s="3">
         <v>700</v>
       </c>
       <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3">
+        <v>700</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
+        <v>500</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2809,58 +3013,64 @@
         <v>2400</v>
       </c>
       <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2903,123 +3113,135 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>900</v>
       </c>
       <c r="Q48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="U48" s="3">
+        <v>800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>700</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -3039,14 +3261,20 @@
       <c r="T49" s="3">
         <v>700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>700</v>
+      </c>
+      <c r="V49" s="3">
+        <v>700</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,14 +3427,14 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -3211,14 +3451,14 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,61 +3554,67 @@
         <v>3700</v>
       </c>
       <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,78 +3663,86 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3483,184 +3751,202 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+      <c r="X59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -3669,10 +3955,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3684,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -3696,66 +3982,72 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
-      </c>
-      <c r="R61" s="3">
-        <v>500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>500</v>
       </c>
       <c r="T61" s="3">
         <v>500</v>
       </c>
       <c r="U61" s="3">
+        <v>500</v>
+      </c>
+      <c r="V61" s="3">
+        <v>500</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -3764,19 +4056,25 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4873,17 +5271,23 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,31 +5620,37 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
@@ -5225,37 +5659,43 @@
         <v>-700</v>
       </c>
       <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,28 +5732,28 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5320,28 +5762,34 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,17 +5933,17 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5506,28 +5966,34 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,35 +6284,41 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5837,31 +6329,37 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-700</v>
       </c>
       <c r="L102" s="3">
         <v>-700</v>
       </c>
       <c r="M102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
